--- a/biology/Botanique/Juniperus_cedrus/Juniperus_cedrus.xlsx
+++ b/biology/Botanique/Juniperus_cedrus/Juniperus_cedrus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Juniperus cedrus est une espèce de conifères de la famille des Cupressacées. Elle est présente dans les Îles Canaries en Espagne et à Madère au Portugal.
 </t>
@@ -511,9 +523,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente dans 3 parcs nationaux aux Îles Canaries : le Parc national du Teide (Tenerife), le Parc national de Garajonay (La Gomera) et le Parc national de la Caldeira de Taburiente (La Palma). Elle est également présente dans le Parc naturel de Madère au Portugal[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente dans 3 parcs nationaux aux Îles Canaries : le Parc national du Teide (Tenerife), le Parc national de Garajonay (La Gomera) et le Parc national de la Caldeira de Taburiente (La Palma). Elle est également présente dans le Parc naturel de Madère au Portugal.
 </t>
         </is>
       </c>
